--- a/src/tests/data/sample data.xlsx
+++ b/src/tests/data/sample data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\repos\hilie-ts\src\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C29FA1-6EC4-432E-91D2-01CAD5C92718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA211B44-AE7C-4A32-95A5-B1F49AFD5E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13530" yWindow="-21720" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{21BBB94A-EFB8-4A7A-B21B-789B6F5D908F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{21BBB94A-EFB8-4A7A-B21B-789B6F5D908F}"/>
   </bookViews>
   <sheets>
     <sheet name="Per Row example" sheetId="2" r:id="rId1"/>
@@ -27,13 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="66">
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="403">
   <si>
     <t>Olivia</t>
   </si>
@@ -47,12 +41,6 @@
     <t>Lucas</t>
   </si>
   <si>
-    <t>William</t>
-  </si>
-  <si>
-    <t>Benjamin</t>
-  </si>
-  <si>
     <t>Levi</t>
   </si>
   <si>
@@ -65,66 +53,15 @@
     <t>Isabella</t>
   </si>
   <si>
-    <t>Evelyn</t>
-  </si>
-  <si>
     <t>Ava</t>
   </si>
   <si>
     <t>Aurora</t>
   </si>
   <si>
-    <t>Elizabeth</t>
-  </si>
-  <si>
     <t>Eliana</t>
   </si>
   <si>
-    <t>Townsend</t>
-  </si>
-  <si>
-    <t>Downs</t>
-  </si>
-  <si>
-    <t>Wells</t>
-  </si>
-  <si>
-    <t>Watson</t>
-  </si>
-  <si>
-    <t>Rojas</t>
-  </si>
-  <si>
-    <t>Booker</t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
-    <t>Crawford</t>
-  </si>
-  <si>
-    <t>Colon</t>
-  </si>
-  <si>
-    <t>Henderson</t>
-  </si>
-  <si>
-    <t>Dawson</t>
-  </si>
-  <si>
-    <t>Grimes</t>
-  </si>
-  <si>
-    <t>Swanson</t>
-  </si>
-  <si>
-    <t>Perkins</t>
-  </si>
-  <si>
-    <t>Browning</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -164,9 +101,6 @@
     <t>Guardian</t>
   </si>
   <si>
-    <t>Parent 3</t>
-  </si>
-  <si>
     <t>Townsend, Olivia</t>
   </si>
   <si>
@@ -225,6 +159,1083 @@
   </si>
   <si>
     <t>Parent</t>
+  </si>
+  <si>
+    <t>45NUMBEU</t>
+  </si>
+  <si>
+    <t>Henry Johnson</t>
+  </si>
+  <si>
+    <t>DBYE6KPR</t>
+  </si>
+  <si>
+    <t>Oliver Smith</t>
+  </si>
+  <si>
+    <t>6XPT2V4S</t>
+  </si>
+  <si>
+    <t>Mia Brown</t>
+  </si>
+  <si>
+    <t>MOCQUMGD</t>
+  </si>
+  <si>
+    <t>Mia Hernandez</t>
+  </si>
+  <si>
+    <t>9FTNQAQA</t>
+  </si>
+  <si>
+    <t>Alexander Davis</t>
+  </si>
+  <si>
+    <t>ZC62NTWB</t>
+  </si>
+  <si>
+    <t>Elijah Martinez</t>
+  </si>
+  <si>
+    <t>No chronic conditions reported.</t>
+  </si>
+  <si>
+    <t>ZYNIC5CS</t>
+  </si>
+  <si>
+    <t>Emma Smith</t>
+  </si>
+  <si>
+    <t>SW2NCEYM</t>
+  </si>
+  <si>
+    <t>Ava Garcia</t>
+  </si>
+  <si>
+    <t>LSUMD0IU</t>
+  </si>
+  <si>
+    <t>Sophia Gonzalez</t>
+  </si>
+  <si>
+    <t>H96GUDLM</t>
+  </si>
+  <si>
+    <t>Ava Smith</t>
+  </si>
+  <si>
+    <t>Z35M647V</t>
+  </si>
+  <si>
+    <t>Mia Lopez</t>
+  </si>
+  <si>
+    <t>MQ84LHQ3</t>
+  </si>
+  <si>
+    <t>Olivia Lopez</t>
+  </si>
+  <si>
+    <t>UN7EJ3L7</t>
+  </si>
+  <si>
+    <t>Ava Rodriguez</t>
+  </si>
+  <si>
+    <t>PUIYS6J8</t>
+  </si>
+  <si>
+    <t>Olivia Brown</t>
+  </si>
+  <si>
+    <t>LN7VBS6V</t>
+  </si>
+  <si>
+    <t>Harper Smith</t>
+  </si>
+  <si>
+    <t>Positive peer interactions noted.</t>
+  </si>
+  <si>
+    <t>GOPVRFBS</t>
+  </si>
+  <si>
+    <t>Ava Brown</t>
+  </si>
+  <si>
+    <t>WU3S7WO2</t>
+  </si>
+  <si>
+    <t>Lucas Jones</t>
+  </si>
+  <si>
+    <t>HHIB6C7A</t>
+  </si>
+  <si>
+    <t>Evelyn Garcia</t>
+  </si>
+  <si>
+    <t>KXLS02QO</t>
+  </si>
+  <si>
+    <t>Alexander Anderson</t>
+  </si>
+  <si>
+    <t>F06EQ5TA</t>
+  </si>
+  <si>
+    <t>Oliver Anderson</t>
+  </si>
+  <si>
+    <t>LCY8GER4</t>
+  </si>
+  <si>
+    <t>Evelyn Wilson</t>
+  </si>
+  <si>
+    <t>OCEZEBP3</t>
+  </si>
+  <si>
+    <t>Lucas Davis</t>
+  </si>
+  <si>
+    <t>YMICTDII</t>
+  </si>
+  <si>
+    <t>Oliver Hernandez</t>
+  </si>
+  <si>
+    <t>EPBKL42S</t>
+  </si>
+  <si>
+    <t>Sophia Rodriguez</t>
+  </si>
+  <si>
+    <t>8TOYG0PR</t>
+  </si>
+  <si>
+    <t>Isabella Wilson</t>
+  </si>
+  <si>
+    <t>GEZDE6M6</t>
+  </si>
+  <si>
+    <t>Liam Gonzalez</t>
+  </si>
+  <si>
+    <t>259L8A4W</t>
+  </si>
+  <si>
+    <t>Harper Johnson</t>
+  </si>
+  <si>
+    <t>OIAP2DTP</t>
+  </si>
+  <si>
+    <t>William Wilson</t>
+  </si>
+  <si>
+    <t>WTGLV2MA</t>
+  </si>
+  <si>
+    <t>Camila Miller</t>
+  </si>
+  <si>
+    <t>XT6CUGU3</t>
+  </si>
+  <si>
+    <t>Noah Miller</t>
+  </si>
+  <si>
+    <t>7ZHB4S9B</t>
+  </si>
+  <si>
+    <t>Benjamin Johnson</t>
+  </si>
+  <si>
+    <t>HXX2XKSZ</t>
+  </si>
+  <si>
+    <t>Ava Miller</t>
+  </si>
+  <si>
+    <t>VXD6I2TB</t>
+  </si>
+  <si>
+    <t>Liam Anderson</t>
+  </si>
+  <si>
+    <t>VRNPGDXC</t>
+  </si>
+  <si>
+    <t>Benjamin Williams</t>
+  </si>
+  <si>
+    <t>SM7WO618</t>
+  </si>
+  <si>
+    <t>Evelyn Gonzalez</t>
+  </si>
+  <si>
+    <t>F3GY0GUI</t>
+  </si>
+  <si>
+    <t>Noah Lopez</t>
+  </si>
+  <si>
+    <t>SPC05OBP</t>
+  </si>
+  <si>
+    <t>Mia Williams</t>
+  </si>
+  <si>
+    <t>28TYU03Z</t>
+  </si>
+  <si>
+    <t>7J7TYM2E</t>
+  </si>
+  <si>
+    <t>Sophia Hernandez</t>
+  </si>
+  <si>
+    <t>GMLOROM7</t>
+  </si>
+  <si>
+    <t>Ava Lopez</t>
+  </si>
+  <si>
+    <t>X77PQBB7</t>
+  </si>
+  <si>
+    <t>Oliver Wilson</t>
+  </si>
+  <si>
+    <t>EPSBHKZF</t>
+  </si>
+  <si>
+    <t>Emma Johnson</t>
+  </si>
+  <si>
+    <t>RHL1HRLW</t>
+  </si>
+  <si>
+    <t>James Brown</t>
+  </si>
+  <si>
+    <t>6VLUWE1F</t>
+  </si>
+  <si>
+    <t>39UTNY79</t>
+  </si>
+  <si>
+    <t>Alexander Williams</t>
+  </si>
+  <si>
+    <t>WWHGV1L7</t>
+  </si>
+  <si>
+    <t>Sophia Williams</t>
+  </si>
+  <si>
+    <t>MD6PDUBX</t>
+  </si>
+  <si>
+    <t>Olivia Smith</t>
+  </si>
+  <si>
+    <t>08WLPV6F</t>
+  </si>
+  <si>
+    <t>Isabella Gonzalez</t>
+  </si>
+  <si>
+    <t>6EKGAZWY</t>
+  </si>
+  <si>
+    <t>William Rodriguez</t>
+  </si>
+  <si>
+    <t>8W9AZDS9</t>
+  </si>
+  <si>
+    <t>Henry Jones</t>
+  </si>
+  <si>
+    <t>FMP0QKZR</t>
+  </si>
+  <si>
+    <t>Elijah Gonzalez</t>
+  </si>
+  <si>
+    <t>XM4QFIXL</t>
+  </si>
+  <si>
+    <t>Henry Martinez</t>
+  </si>
+  <si>
+    <t>9N51TPXZ</t>
+  </si>
+  <si>
+    <t>Sophia Garcia</t>
+  </si>
+  <si>
+    <t>XM9BAEJR</t>
+  </si>
+  <si>
+    <t>CUJ2X2C0</t>
+  </si>
+  <si>
+    <t>Henry Gonzalez</t>
+  </si>
+  <si>
+    <t>RBIQPDR6</t>
+  </si>
+  <si>
+    <t>Sophia Jones</t>
+  </si>
+  <si>
+    <t>CTRWK7LO</t>
+  </si>
+  <si>
+    <t>Benjamin Brown</t>
+  </si>
+  <si>
+    <t>K4KTOEF8</t>
+  </si>
+  <si>
+    <t>Evelyn Anderson</t>
+  </si>
+  <si>
+    <t>O00XGH14</t>
+  </si>
+  <si>
+    <t>Liam Garcia</t>
+  </si>
+  <si>
+    <t>ZY6RSNQS</t>
+  </si>
+  <si>
+    <t>Camila Garcia</t>
+  </si>
+  <si>
+    <t>HAXGWJP7</t>
+  </si>
+  <si>
+    <t>Ava Hernandez</t>
+  </si>
+  <si>
+    <t>Eats most school meals.....Avoids overly spicy foods.</t>
+  </si>
+  <si>
+    <t>FullName</t>
+  </si>
+  <si>
+    <t>Languages</t>
+  </si>
+  <si>
+    <t>StudentID</t>
+  </si>
+  <si>
+    <t>Joshua Anderson</t>
+  </si>
+  <si>
+    <t>410-555-4719</t>
+  </si>
+  <si>
+    <t>joshua.anderson@example.com</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Emily Smith</t>
+  </si>
+  <si>
+    <t>410-555-9166</t>
+  </si>
+  <si>
+    <t>emily.smith@example.com</t>
+  </si>
+  <si>
+    <t>Matthew Miller</t>
+  </si>
+  <si>
+    <t>410-555-2056</t>
+  </si>
+  <si>
+    <t>matthew.miller@example.com</t>
+  </si>
+  <si>
+    <t>410-555-6095</t>
+  </si>
+  <si>
+    <t>Sarah Lopez</t>
+  </si>
+  <si>
+    <t>410-555-7937</t>
+  </si>
+  <si>
+    <t>sarah.lopez@example.com</t>
+  </si>
+  <si>
+    <t>410-555-6362</t>
+  </si>
+  <si>
+    <t>Joshua Martinez</t>
+  </si>
+  <si>
+    <t>410-555-1612</t>
+  </si>
+  <si>
+    <t>joshua.martinez@example.com</t>
+  </si>
+  <si>
+    <t>410-555-6597</t>
+  </si>
+  <si>
+    <t>anthony.hernandez@example.com</t>
+  </si>
+  <si>
+    <t>Michael Gonzalez</t>
+  </si>
+  <si>
+    <t>410-555-1302</t>
+  </si>
+  <si>
+    <t>michael.gonzalez@example.com</t>
+  </si>
+  <si>
+    <t>410-555-1301</t>
+  </si>
+  <si>
+    <t>christopher.gonzalez@example.com</t>
+  </si>
+  <si>
+    <t>Sarah Johnson</t>
+  </si>
+  <si>
+    <t>410-555-2563</t>
+  </si>
+  <si>
+    <t>sarah.johnson@example.com</t>
+  </si>
+  <si>
+    <t>410-555-6501</t>
+  </si>
+  <si>
+    <t>Emily Brown</t>
+  </si>
+  <si>
+    <t>410-555-5035</t>
+  </si>
+  <si>
+    <t>emily.brown@example.com</t>
+  </si>
+  <si>
+    <t>410-555-1377</t>
+  </si>
+  <si>
+    <t>christopher.brown@example.com</t>
+  </si>
+  <si>
+    <t>410-555-8815</t>
+  </si>
+  <si>
+    <t>matthew.brown@example.com</t>
+  </si>
+  <si>
+    <t>Sarah Rodriguez</t>
+  </si>
+  <si>
+    <t>410-555-3699</t>
+  </si>
+  <si>
+    <t>sarah.rodriguez@example.com</t>
+  </si>
+  <si>
+    <t>410-555-8844</t>
+  </si>
+  <si>
+    <t>christopher.rodriguez@example.com</t>
+  </si>
+  <si>
+    <t>Michael Miller</t>
+  </si>
+  <si>
+    <t>410-555-2784</t>
+  </si>
+  <si>
+    <t>michael.miller@example.com</t>
+  </si>
+  <si>
+    <t>Michael Wilson</t>
+  </si>
+  <si>
+    <t>410-555-3337</t>
+  </si>
+  <si>
+    <t>michael.wilson@example.com</t>
+  </si>
+  <si>
+    <t>410-555-9739</t>
+  </si>
+  <si>
+    <t>christopher.wilson@example.com</t>
+  </si>
+  <si>
+    <t>410-555-3688</t>
+  </si>
+  <si>
+    <t>410-555-6020</t>
+  </si>
+  <si>
+    <t>jessica.gonzalez@example.com</t>
+  </si>
+  <si>
+    <t>410-555-5212</t>
+  </si>
+  <si>
+    <t>Ashley Anderson</t>
+  </si>
+  <si>
+    <t>410-555-2892</t>
+  </si>
+  <si>
+    <t>ashley.anderson@example.com</t>
+  </si>
+  <si>
+    <t>410-555-9422</t>
+  </si>
+  <si>
+    <t>emily.anderson@example.com</t>
+  </si>
+  <si>
+    <t>410-555-5581</t>
+  </si>
+  <si>
+    <t>michael.lopez@example.com</t>
+  </si>
+  <si>
+    <t>Matthew Gonzalez</t>
+  </si>
+  <si>
+    <t>410-555-9461</t>
+  </si>
+  <si>
+    <t>matthew.gonzalez@example.com</t>
+  </si>
+  <si>
+    <t>410-555-5017</t>
+  </si>
+  <si>
+    <t>anthony.gonzalez@example.com</t>
+  </si>
+  <si>
+    <t>Christopher Anderson</t>
+  </si>
+  <si>
+    <t>410-555-4429</t>
+  </si>
+  <si>
+    <t>christopher.anderson@example.com</t>
+  </si>
+  <si>
+    <t>410-555-8157</t>
+  </si>
+  <si>
+    <t>matthew.anderson@example.com</t>
+  </si>
+  <si>
+    <t>Daniel Gonzalez</t>
+  </si>
+  <si>
+    <t>410-555-2768</t>
+  </si>
+  <si>
+    <t>daniel.gonzalez@example.com</t>
+  </si>
+  <si>
+    <t>410-555-8759</t>
+  </si>
+  <si>
+    <t>Matthew Lopez</t>
+  </si>
+  <si>
+    <t>410-555-1171</t>
+  </si>
+  <si>
+    <t>matthew.lopez@example.com</t>
+  </si>
+  <si>
+    <t>Ashley Lopez</t>
+  </si>
+  <si>
+    <t>410-555-3501</t>
+  </si>
+  <si>
+    <t>ashley.lopez@example.com</t>
+  </si>
+  <si>
+    <t>410-555-5957</t>
+  </si>
+  <si>
+    <t>joshua.williams@example.com</t>
+  </si>
+  <si>
+    <t>Christopher Johnson</t>
+  </si>
+  <si>
+    <t>410-555-1298</t>
+  </si>
+  <si>
+    <t>christopher.johnson@example.com</t>
+  </si>
+  <si>
+    <t>410-555-5497</t>
+  </si>
+  <si>
+    <t>michael.johnson@example.com</t>
+  </si>
+  <si>
+    <t>Anthony Jones</t>
+  </si>
+  <si>
+    <t>410-555-8587</t>
+  </si>
+  <si>
+    <t>anthony.jones@example.com</t>
+  </si>
+  <si>
+    <t>410-555-3012</t>
+  </si>
+  <si>
+    <t>ashley.jones@example.com</t>
+  </si>
+  <si>
+    <t>410-555-9799</t>
+  </si>
+  <si>
+    <t>sarah.gonzalez@example.com</t>
+  </si>
+  <si>
+    <t>Joshua Jones</t>
+  </si>
+  <si>
+    <t>410-555-9736</t>
+  </si>
+  <si>
+    <t>joshua.jones@example.com</t>
+  </si>
+  <si>
+    <t>410-555-5732</t>
+  </si>
+  <si>
+    <t>410-555-4251</t>
+  </si>
+  <si>
+    <t>sarah.anderson@example.com</t>
+  </si>
+  <si>
+    <t>Michael Garcia</t>
+  </si>
+  <si>
+    <t>410-555-2532</t>
+  </si>
+  <si>
+    <t>michael.garcia@example.com</t>
+  </si>
+  <si>
+    <t>410-555-5064</t>
+  </si>
+  <si>
+    <t>christopher.garcia@example.com</t>
+  </si>
+  <si>
+    <t>Ashley Jones</t>
+  </si>
+  <si>
+    <t>410-555-9788</t>
+  </si>
+  <si>
+    <t>410-555-5605</t>
+  </si>
+  <si>
+    <t>matthew.jones@example.com</t>
+  </si>
+  <si>
+    <t>Joshua Rodriguez</t>
+  </si>
+  <si>
+    <t>410-555-1318</t>
+  </si>
+  <si>
+    <t>joshua.rodriguez@example.com</t>
+  </si>
+  <si>
+    <t>Sarah Davis</t>
+  </si>
+  <si>
+    <t>410-555-3274</t>
+  </si>
+  <si>
+    <t>sarah.davis@example.com</t>
+  </si>
+  <si>
+    <t>410-555-8023</t>
+  </si>
+  <si>
+    <t>christopher.davis@example.com</t>
+  </si>
+  <si>
+    <t>410-555-2988</t>
+  </si>
+  <si>
+    <t>christopher.lopez@example.com</t>
+  </si>
+  <si>
+    <t>Emily Williams</t>
+  </si>
+  <si>
+    <t>410-555-2394</t>
+  </si>
+  <si>
+    <t>emily.williams@example.com</t>
+  </si>
+  <si>
+    <t>410-555-5612</t>
+  </si>
+  <si>
+    <t>michael.williams@example.com</t>
+  </si>
+  <si>
+    <t>Michael Jones</t>
+  </si>
+  <si>
+    <t>410-555-5046</t>
+  </si>
+  <si>
+    <t>michael.jones@example.com</t>
+  </si>
+  <si>
+    <t>410-555-1884</t>
+  </si>
+  <si>
+    <t>Anthony Garcia</t>
+  </si>
+  <si>
+    <t>410-555-1571</t>
+  </si>
+  <si>
+    <t>anthony.garcia@example.com</t>
+  </si>
+  <si>
+    <t>410-555-4660</t>
+  </si>
+  <si>
+    <t>jessica.garcia@example.com</t>
+  </si>
+  <si>
+    <t>Emily Davis</t>
+  </si>
+  <si>
+    <t>410-555-2167</t>
+  </si>
+  <si>
+    <t>emily.davis@example.com</t>
+  </si>
+  <si>
+    <t>Matthew Wilson</t>
+  </si>
+  <si>
+    <t>410-555-5924</t>
+  </si>
+  <si>
+    <t>matthew.wilson@example.com</t>
+  </si>
+  <si>
+    <t>410-555-2325</t>
+  </si>
+  <si>
+    <t>sarah.jones@example.com</t>
+  </si>
+  <si>
+    <t>Emily Garcia</t>
+  </si>
+  <si>
+    <t>410-555-7848</t>
+  </si>
+  <si>
+    <t>emily.garcia@example.com</t>
+  </si>
+  <si>
+    <t>410-555-3601</t>
+  </si>
+  <si>
+    <t>410-555-1126</t>
+  </si>
+  <si>
+    <t>matthew.martinez@example.com</t>
+  </si>
+  <si>
+    <t>Christopher Miller</t>
+  </si>
+  <si>
+    <t>410-555-3802</t>
+  </si>
+  <si>
+    <t>christopher.miller@example.com</t>
+  </si>
+  <si>
+    <t>Emily Lopez</t>
+  </si>
+  <si>
+    <t>410-555-8243</t>
+  </si>
+  <si>
+    <t>emily.lopez@example.com</t>
+  </si>
+  <si>
+    <t>410-555-1001</t>
+  </si>
+  <si>
+    <t>Sarah Jones</t>
+  </si>
+  <si>
+    <t>410-555-7935</t>
+  </si>
+  <si>
+    <t>410-555-2052</t>
+  </si>
+  <si>
+    <t>410-555-3758</t>
+  </si>
+  <si>
+    <t>410-555-3420</t>
+  </si>
+  <si>
+    <t>410-555-3379</t>
+  </si>
+  <si>
+    <t>410-555-9976</t>
+  </si>
+  <si>
+    <t>Matthew Smith</t>
+  </si>
+  <si>
+    <t>410-555-1970</t>
+  </si>
+  <si>
+    <t>matthew.smith@example.com</t>
+  </si>
+  <si>
+    <t>Christopher Davis</t>
+  </si>
+  <si>
+    <t>410-555-9628</t>
+  </si>
+  <si>
+    <t>Anthony Wilson</t>
+  </si>
+  <si>
+    <t>410-555-8975</t>
+  </si>
+  <si>
+    <t>anthony.wilson@example.com</t>
+  </si>
+  <si>
+    <t>410-555-4481</t>
+  </si>
+  <si>
+    <t>Ashley Martinez</t>
+  </si>
+  <si>
+    <t>410-555-9257</t>
+  </si>
+  <si>
+    <t>ashley.martinez@example.com</t>
+  </si>
+  <si>
+    <t>410-555-1310</t>
+  </si>
+  <si>
+    <t>Emily Anderson</t>
+  </si>
+  <si>
+    <t>410-555-5788</t>
+  </si>
+  <si>
+    <t>Anthony Smith</t>
+  </si>
+  <si>
+    <t>410-555-3281</t>
+  </si>
+  <si>
+    <t>anthony.smith@example.com</t>
+  </si>
+  <si>
+    <t>410-555-9143</t>
+  </si>
+  <si>
+    <t>ashley.smith@example.com</t>
+  </si>
+  <si>
+    <t>Christopher Lopez</t>
+  </si>
+  <si>
+    <t>410-555-5633</t>
+  </si>
+  <si>
+    <t>Emily Gonzalez</t>
+  </si>
+  <si>
+    <t>410-555-8729</t>
+  </si>
+  <si>
+    <t>emily.gonzalez@example.com</t>
+  </si>
+  <si>
+    <t>410-555-2239</t>
+  </si>
+  <si>
+    <t>ashley.gonzalez@example.com</t>
+  </si>
+  <si>
+    <t>Daniel Hernandez</t>
+  </si>
+  <si>
+    <t>410-555-4329</t>
+  </si>
+  <si>
+    <t>daniel.hernandez@example.com</t>
+  </si>
+  <si>
+    <t>410-555-9191</t>
+  </si>
+  <si>
+    <t>jessica.hernandez@example.com</t>
+  </si>
+  <si>
+    <t>Joshua Smith</t>
+  </si>
+  <si>
+    <t>410-555-8829</t>
+  </si>
+  <si>
+    <t>joshua.smith@example.com</t>
+  </si>
+  <si>
+    <t>410-555-4633</t>
+  </si>
+  <si>
+    <t>christopher.smith@example.com</t>
+  </si>
+  <si>
+    <t>Joshua Johnson</t>
+  </si>
+  <si>
+    <t>410-555-7169</t>
+  </si>
+  <si>
+    <t>joshua.johnson@example.com</t>
+  </si>
+  <si>
+    <t>410-555-2700</t>
+  </si>
+  <si>
+    <t>ashley.johnson@example.com</t>
+  </si>
+  <si>
+    <t>Daniel Brown</t>
+  </si>
+  <si>
+    <t>410-555-9606</t>
+  </si>
+  <si>
+    <t>daniel.brown@example.com</t>
+  </si>
+  <si>
+    <t>410-555-5225</t>
+  </si>
+  <si>
+    <t>410-555-1083</t>
+  </si>
+  <si>
+    <t>English;Spanish</t>
+  </si>
+  <si>
+    <t>Anthony Hernandez</t>
+  </si>
+  <si>
+    <t>Christopher Gonzalez</t>
+  </si>
+  <si>
+    <t>Christopher Brown</t>
+  </si>
+  <si>
+    <t>Matthew Brown</t>
+  </si>
+  <si>
+    <t>Christopher Rodriguez</t>
+  </si>
+  <si>
+    <t>Christopher Wilson</t>
+  </si>
+  <si>
+    <t>Jessica Gonzalez</t>
+  </si>
+  <si>
+    <t>Michael Lopez</t>
+  </si>
+  <si>
+    <t>Anthony Gonzalez</t>
+  </si>
+  <si>
+    <t>Matthew Anderson</t>
+  </si>
+  <si>
+    <t>Joshua Williams</t>
+  </si>
+  <si>
+    <t>Michael Johnson</t>
+  </si>
+  <si>
+    <t>Sarah Gonzalez</t>
+  </si>
+  <si>
+    <t>Sarah Anderson</t>
+  </si>
+  <si>
+    <t>Christopher Garcia</t>
+  </si>
+  <si>
+    <t>Matthew Jones</t>
+  </si>
+  <si>
+    <t>Michael Williams</t>
+  </si>
+  <si>
+    <t>Jessica Garcia</t>
+  </si>
+  <si>
+    <t>Matthew Martinez</t>
+  </si>
+  <si>
+    <t>Ashley Smith</t>
+  </si>
+  <si>
+    <t>Ashley Gonzalez</t>
+  </si>
+  <si>
+    <t>Jessica Hernandez</t>
+  </si>
+  <si>
+    <t>Christopher Smith</t>
+  </si>
+  <si>
+    <t>Ashley Johnson</t>
+  </si>
+  <si>
+    <t>Language</t>
   </si>
 </sst>
 </file>
@@ -268,9 +1279,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,30 +1597,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CF6D31-E402-4E21-9A08-D3A328265974}">
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:AF63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" customWidth="1"/>
+    <col min="1" max="2" width="11.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" customWidth="1"/>
     <col min="4" max="4" width="27.54296875" customWidth="1"/>
-    <col min="5" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" customWidth="1"/>
-    <col min="11" max="11" width="23.36328125" customWidth="1"/>
-    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="5" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" customWidth="1"/>
+    <col min="11" max="11" width="14.453125" customWidth="1"/>
+    <col min="12" max="12" width="23.36328125" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" customWidth="1"/>
+    <col min="24" max="24" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -619,275 +1632,2285 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="T1" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K3" s="2">
+        <v>41763</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="N3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O3" t="s">
+        <v>171</v>
+      </c>
+      <c r="P3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K4" s="2">
+        <v>41988</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="N4" t="s">
+        <v>174</v>
+      </c>
+      <c r="O4" t="s">
+        <v>175</v>
+      </c>
+      <c r="P4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2">
+        <v>41652</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="N5" t="s">
+        <v>174</v>
+      </c>
+      <c r="O5" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K6" s="2">
+        <v>41709</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="N6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O6" t="s">
+        <v>178</v>
+      </c>
+      <c r="P6" t="s">
+        <v>172</v>
+      </c>
+      <c r="T6" t="s">
+        <v>176</v>
+      </c>
+      <c r="V6" t="s">
+        <v>179</v>
+      </c>
+      <c r="W6" t="s">
+        <v>178</v>
+      </c>
+      <c r="X6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2">
+        <v>41533</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="N7" t="s">
+        <v>181</v>
+      </c>
+      <c r="O7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P7" t="s">
+        <v>172</v>
+      </c>
+      <c r="T7" t="s">
+        <v>180</v>
+      </c>
+      <c r="V7" t="s">
+        <v>183</v>
+      </c>
+      <c r="W7" t="s">
+        <v>182</v>
+      </c>
+      <c r="X7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2">
+        <v>41529</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="N8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O8" t="s">
+        <v>186</v>
+      </c>
+      <c r="P8" t="s">
+        <v>172</v>
+      </c>
+      <c r="T8" t="s">
+        <v>378</v>
+      </c>
+      <c r="V8" t="s">
+        <v>187</v>
+      </c>
+      <c r="W8" t="s">
+        <v>188</v>
+      </c>
+      <c r="X8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K9" s="2">
+        <v>41458</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="N9" t="s">
+        <v>190</v>
+      </c>
+      <c r="O9" t="s">
+        <v>191</v>
+      </c>
+      <c r="P9" t="s">
+        <v>172</v>
+      </c>
+      <c r="T9" t="s">
+        <v>379</v>
+      </c>
+      <c r="V9" t="s">
+        <v>192</v>
+      </c>
+      <c r="W9" t="s">
+        <v>193</v>
+      </c>
+      <c r="X9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2">
+        <v>41528</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="N10" t="s">
+        <v>190</v>
+      </c>
+      <c r="O10" t="s">
+        <v>191</v>
+      </c>
+      <c r="P10" t="s">
+        <v>172</v>
+      </c>
+      <c r="T10" t="s">
+        <v>379</v>
+      </c>
+      <c r="V10" t="s">
+        <v>192</v>
+      </c>
+      <c r="W10" t="s">
+        <v>193</v>
+      </c>
+      <c r="X10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="G11" t="s">
+        <v>377</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2">
+        <v>41350</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="N11" t="s">
+        <v>195</v>
+      </c>
+      <c r="O11" t="s">
+        <v>196</v>
+      </c>
+      <c r="P11" t="s">
+        <v>172</v>
+      </c>
+      <c r="T11" t="s">
+        <v>194</v>
+      </c>
+      <c r="V11" t="s">
+        <v>197</v>
+      </c>
+      <c r="W11" t="s">
+        <v>196</v>
+      </c>
+      <c r="X11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2">
+        <v>41381</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="N12" t="s">
+        <v>199</v>
+      </c>
+      <c r="O12" t="s">
+        <v>200</v>
+      </c>
+      <c r="P12" t="s">
+        <v>172</v>
+      </c>
+      <c r="T12" t="s">
+        <v>380</v>
+      </c>
+      <c r="V12" t="s">
+        <v>201</v>
+      </c>
+      <c r="W12" t="s">
+        <v>202</v>
+      </c>
+      <c r="X12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>381</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+      <c r="G13" t="s">
+        <v>377</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2">
+        <v>41648</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="N13" t="s">
+        <v>206</v>
+      </c>
+      <c r="O13" t="s">
+        <v>207</v>
+      </c>
+      <c r="P13" t="s">
+        <v>172</v>
+      </c>
+      <c r="T13" t="s">
+        <v>382</v>
+      </c>
+      <c r="V13" t="s">
+        <v>208</v>
+      </c>
+      <c r="W13" t="s">
+        <v>209</v>
+      </c>
+      <c r="X13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s">
+        <v>377</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2">
+        <v>41610</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="N14" t="s">
+        <v>206</v>
+      </c>
+      <c r="O14" t="s">
+        <v>207</v>
+      </c>
+      <c r="P14" t="s">
+        <v>172</v>
+      </c>
+      <c r="T14" t="s">
+        <v>382</v>
+      </c>
+      <c r="V14" t="s">
+        <v>208</v>
+      </c>
+      <c r="W14" t="s">
+        <v>209</v>
+      </c>
+      <c r="X14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="G15" t="s">
+        <v>377</v>
+      </c>
+      <c r="I15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2">
+        <v>41726</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="N15" t="s">
+        <v>211</v>
+      </c>
+      <c r="O15" t="s">
+        <v>212</v>
+      </c>
+      <c r="P15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>377</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K16" s="2">
+        <v>41786</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="N16" t="s">
+        <v>211</v>
+      </c>
+      <c r="O16" t="s">
+        <v>212</v>
+      </c>
+      <c r="P16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
+        <v>74</v>
+      </c>
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2">
+        <v>41887</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="N17" t="s">
+        <v>214</v>
+      </c>
+      <c r="O17" t="s">
+        <v>215</v>
+      </c>
+      <c r="P17" t="s">
+        <v>172</v>
+      </c>
+      <c r="T17" t="s">
+        <v>383</v>
+      </c>
+      <c r="V17" t="s">
+        <v>216</v>
+      </c>
+      <c r="W17" t="s">
+        <v>217</v>
+      </c>
+      <c r="X17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2">
+        <v>41404</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="N18" t="s">
+        <v>214</v>
+      </c>
+      <c r="O18" t="s">
+        <v>215</v>
+      </c>
+      <c r="P18" t="s">
+        <v>172</v>
+      </c>
+      <c r="T18" t="s">
+        <v>383</v>
+      </c>
+      <c r="V18" t="s">
+        <v>216</v>
+      </c>
+      <c r="W18" t="s">
+        <v>217</v>
+      </c>
+      <c r="X18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K19" s="2">
+        <v>41320</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="N19" t="s">
+        <v>218</v>
+      </c>
+      <c r="O19" t="s">
+        <v>200</v>
+      </c>
+      <c r="P19" t="s">
+        <v>172</v>
+      </c>
+      <c r="T19" t="s">
+        <v>384</v>
+      </c>
+      <c r="V19" t="s">
+        <v>219</v>
+      </c>
+      <c r="W19" t="s">
+        <v>220</v>
+      </c>
+      <c r="X19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2">
+        <v>41491</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="N20" t="s">
+        <v>218</v>
+      </c>
+      <c r="O20" t="s">
+        <v>200</v>
+      </c>
+      <c r="P20" t="s">
+        <v>172</v>
+      </c>
+      <c r="T20" t="s">
+        <v>173</v>
+      </c>
+      <c r="V20" t="s">
+        <v>221</v>
+      </c>
+      <c r="W20" t="s">
+        <v>175</v>
+      </c>
+      <c r="X20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2">
+        <v>41398</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N21" t="s">
+        <v>223</v>
+      </c>
+      <c r="O21" t="s">
+        <v>224</v>
+      </c>
+      <c r="P21" t="s">
+        <v>172</v>
+      </c>
+      <c r="T21" t="s">
+        <v>343</v>
+      </c>
+      <c r="V21" t="s">
+        <v>225</v>
+      </c>
+      <c r="W21" t="s">
+        <v>226</v>
+      </c>
+      <c r="X21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2">
+        <v>41649</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N22" t="s">
+        <v>223</v>
+      </c>
+      <c r="O22" t="s">
+        <v>224</v>
+      </c>
+      <c r="P22" t="s">
+        <v>172</v>
+      </c>
+      <c r="T22" t="s">
+        <v>343</v>
+      </c>
+      <c r="V22" t="s">
+        <v>225</v>
+      </c>
+      <c r="W22" t="s">
+        <v>226</v>
+      </c>
+      <c r="X22" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>385</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" t="s">
+        <v>377</v>
+      </c>
+      <c r="H23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2">
+        <v>41569</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N23" t="s">
+        <v>230</v>
+      </c>
+      <c r="O23" t="s">
+        <v>231</v>
+      </c>
+      <c r="P23" t="s">
+        <v>172</v>
+      </c>
+      <c r="T23" t="s">
+        <v>386</v>
+      </c>
+      <c r="V23" t="s">
+        <v>232</v>
+      </c>
+      <c r="W23" t="s">
+        <v>233</v>
+      </c>
+      <c r="X23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K24" s="2">
+        <v>41751</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N24" t="s">
+        <v>235</v>
+      </c>
+      <c r="O24" t="s">
+        <v>236</v>
+      </c>
+      <c r="P24" t="s">
+        <v>172</v>
+      </c>
+      <c r="T24" t="s">
+        <v>387</v>
+      </c>
+      <c r="V24" t="s">
+        <v>237</v>
+      </c>
+      <c r="W24" t="s">
+        <v>238</v>
+      </c>
+      <c r="X24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>91</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K25" s="2">
+        <v>41405</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="N25" t="s">
+        <v>240</v>
+      </c>
+      <c r="O25" t="s">
+        <v>241</v>
+      </c>
+      <c r="P25" t="s">
+        <v>172</v>
+      </c>
+      <c r="T25" t="s">
+        <v>189</v>
+      </c>
+      <c r="V25" t="s">
+        <v>242</v>
+      </c>
+      <c r="W25" t="s">
+        <v>191</v>
+      </c>
+      <c r="X25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" t="s">
+        <v>377</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2">
+        <v>41811</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="N26" t="s">
+        <v>244</v>
+      </c>
+      <c r="O26" t="s">
+        <v>245</v>
+      </c>
+      <c r="P26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" t="s">
+        <v>95</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2">
+        <v>41628</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N27" t="s">
+        <v>247</v>
+      </c>
+      <c r="O27" t="s">
+        <v>248</v>
+      </c>
+      <c r="P27" t="s">
+        <v>172</v>
+      </c>
+      <c r="T27" t="s">
+        <v>388</v>
+      </c>
+      <c r="V27" t="s">
+        <v>249</v>
+      </c>
+      <c r="W27" t="s">
+        <v>250</v>
+      </c>
+      <c r="X27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2">
+        <v>41376</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="N28" t="s">
+        <v>252</v>
+      </c>
+      <c r="O28" t="s">
+        <v>253</v>
+      </c>
+      <c r="P28" t="s">
+        <v>172</v>
+      </c>
+      <c r="T28" t="s">
+        <v>389</v>
+      </c>
+      <c r="V28" t="s">
+        <v>254</v>
+      </c>
+      <c r="W28" t="s">
+        <v>255</v>
+      </c>
+      <c r="X28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" t="s">
+        <v>99</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2">
+        <v>41785</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="N29" t="s">
+        <v>257</v>
+      </c>
+      <c r="O29" t="s">
+        <v>258</v>
+      </c>
+      <c r="P29" t="s">
+        <v>172</v>
+      </c>
+      <c r="T29" t="s">
+        <v>274</v>
+      </c>
+      <c r="V29" t="s">
+        <v>259</v>
+      </c>
+      <c r="W29" t="s">
+        <v>260</v>
+      </c>
+      <c r="X29" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>390</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>261</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>262</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2">
+        <v>41456</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="N30" t="s">
+        <v>264</v>
+      </c>
+      <c r="O30" t="s">
+        <v>265</v>
+      </c>
+      <c r="P30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31" t="s">
+        <v>377</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2">
+        <v>41914</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N31" t="s">
+        <v>266</v>
+      </c>
+      <c r="O31" t="s">
+        <v>236</v>
+      </c>
+      <c r="P31" t="s">
+        <v>172</v>
+      </c>
+      <c r="T31" t="s">
+        <v>391</v>
+      </c>
+      <c r="V31" t="s">
+        <v>267</v>
+      </c>
+      <c r="W31" t="s">
+        <v>268</v>
+      </c>
+      <c r="X31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" t="s">
+        <v>105</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2">
+        <v>41339</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="N32" t="s">
+        <v>270</v>
+      </c>
+      <c r="O32" t="s">
+        <v>271</v>
+      </c>
+      <c r="P32" t="s">
+        <v>172</v>
+      </c>
+      <c r="T32" t="s">
+        <v>392</v>
+      </c>
+      <c r="V32" t="s">
+        <v>272</v>
+      </c>
+      <c r="W32" t="s">
+        <v>273</v>
+      </c>
+      <c r="X32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" t="s">
+        <v>107</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2">
+        <v>41657</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="N33" t="s">
+        <v>270</v>
+      </c>
+      <c r="O33" t="s">
+        <v>271</v>
+      </c>
+      <c r="P33" t="s">
+        <v>172</v>
+      </c>
+      <c r="T33" t="s">
+        <v>392</v>
+      </c>
+      <c r="V33" t="s">
+        <v>272</v>
+      </c>
+      <c r="W33" t="s">
+        <v>273</v>
+      </c>
+      <c r="X33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" t="s">
+        <v>109</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2">
+        <v>41307</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="N34" t="s">
+        <v>275</v>
+      </c>
+      <c r="O34" t="s">
+        <v>260</v>
+      </c>
+      <c r="P34" t="s">
+        <v>172</v>
+      </c>
+      <c r="T34" t="s">
+        <v>393</v>
+      </c>
+      <c r="V34" t="s">
+        <v>276</v>
+      </c>
+      <c r="W34" t="s">
+        <v>277</v>
+      </c>
+      <c r="X34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" t="s">
+        <v>111</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2">
+        <v>41542</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="N35" t="s">
+        <v>279</v>
+      </c>
+      <c r="O35" t="s">
+        <v>280</v>
+      </c>
+      <c r="P35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" t="s">
+        <v>113</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2">
+        <v>41427</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="N36" t="s">
+        <v>282</v>
+      </c>
+      <c r="O36" t="s">
+        <v>283</v>
+      </c>
+      <c r="P36" t="s">
+        <v>172</v>
+      </c>
+      <c r="T36" t="s">
+        <v>333</v>
+      </c>
+      <c r="V36" t="s">
+        <v>284</v>
+      </c>
+      <c r="W36" t="s">
+        <v>285</v>
+      </c>
+      <c r="X36" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>350</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>286</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>287</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" t="s">
+        <v>115</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2">
+        <v>41604</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="N37" t="s">
+        <v>289</v>
+      </c>
+      <c r="O37" t="s">
+        <v>290</v>
+      </c>
+      <c r="P37" t="s">
+        <v>172</v>
+      </c>
+      <c r="T37" t="s">
+        <v>394</v>
+      </c>
+      <c r="V37" t="s">
+        <v>291</v>
+      </c>
+      <c r="W37" t="s">
+        <v>292</v>
+      </c>
+      <c r="X37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" t="s">
+        <v>117</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K38" s="2">
+        <v>41427</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="N38" t="s">
+        <v>289</v>
+      </c>
+      <c r="O38" t="s">
+        <v>290</v>
+      </c>
+      <c r="P38" t="s">
+        <v>172</v>
+      </c>
+      <c r="T38" t="s">
+        <v>394</v>
+      </c>
+      <c r="V38" t="s">
+        <v>291</v>
+      </c>
+      <c r="W38" t="s">
+        <v>292</v>
+      </c>
+      <c r="X38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" t="s">
+        <v>119</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K39" s="2">
+        <v>41812</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N39" t="s">
+        <v>294</v>
+      </c>
+      <c r="O39" t="s">
+        <v>295</v>
+      </c>
+      <c r="P39" t="s">
+        <v>172</v>
+      </c>
+      <c r="T39" t="s">
+        <v>263</v>
+      </c>
+      <c r="V39" t="s">
+        <v>296</v>
+      </c>
+      <c r="W39" t="s">
+        <v>265</v>
+      </c>
+      <c r="X39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I40" t="s">
+        <v>56</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K40" s="2">
+        <v>41801</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="N40" t="s">
+        <v>298</v>
+      </c>
+      <c r="O40" t="s">
+        <v>299</v>
+      </c>
+      <c r="P40" t="s">
+        <v>172</v>
+      </c>
+      <c r="T40" t="s">
+        <v>395</v>
+      </c>
+      <c r="V40" t="s">
+        <v>300</v>
+      </c>
+      <c r="W40" t="s">
+        <v>301</v>
+      </c>
+      <c r="X40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+      <c r="G41" t="s">
+        <v>377</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2">
+        <v>41446</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="N41" t="s">
+        <v>303</v>
+      </c>
+      <c r="O41" t="s">
+        <v>304</v>
+      </c>
+      <c r="P41" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" t="s">
+        <v>124</v>
+      </c>
+      <c r="G42" t="s">
+        <v>377</v>
+      </c>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2">
+        <v>41696</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="N42" t="s">
+        <v>303</v>
+      </c>
+      <c r="O42" t="s">
+        <v>304</v>
+      </c>
+      <c r="P42" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" t="s">
+        <v>126</v>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2">
+        <v>41482</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="N43" t="s">
+        <v>306</v>
+      </c>
+      <c r="O43" t="s">
+        <v>307</v>
+      </c>
+      <c r="P43" t="s">
+        <v>172</v>
+      </c>
+      <c r="T43" t="s">
+        <v>323</v>
+      </c>
+      <c r="V43" t="s">
+        <v>308</v>
+      </c>
+      <c r="W43" t="s">
+        <v>309</v>
+      </c>
+      <c r="X43" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" t="s">
+        <v>128</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2">
+        <v>41918</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="N44" t="s">
+        <v>311</v>
+      </c>
+      <c r="O44" t="s">
+        <v>312</v>
+      </c>
+      <c r="P44" t="s">
+        <v>172</v>
+      </c>
+      <c r="T44" t="s">
+        <v>392</v>
+      </c>
+      <c r="V44" t="s">
+        <v>313</v>
+      </c>
+      <c r="W44" t="s">
+        <v>273</v>
+      </c>
+      <c r="X44" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>396</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>314</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>315</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" t="s">
+        <v>130</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2">
+        <v>41752</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="N45" t="s">
+        <v>317</v>
+      </c>
+      <c r="O45" t="s">
+        <v>318</v>
+      </c>
+      <c r="P45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" t="s">
+        <v>91</v>
+      </c>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2">
+        <v>41855</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="N46" t="s">
+        <v>317</v>
+      </c>
+      <c r="O46" t="s">
+        <v>318</v>
+      </c>
+      <c r="P46" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" t="s">
+        <v>133</v>
+      </c>
+      <c r="I47" t="s">
+        <v>56</v>
+      </c>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2">
+        <v>41622</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="N47" t="s">
+        <v>320</v>
+      </c>
+      <c r="O47" t="s">
+        <v>321</v>
+      </c>
+      <c r="P47" t="s">
+        <v>172</v>
+      </c>
+      <c r="T47" t="s">
+        <v>319</v>
+      </c>
+      <c r="V47" t="s">
+        <v>322</v>
+      </c>
+      <c r="W47" t="s">
+        <v>321</v>
+      </c>
+      <c r="X47" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" t="s">
+        <v>135</v>
+      </c>
+      <c r="G48" t="s">
+        <v>377</v>
+      </c>
+      <c r="I48" t="s">
+        <v>56</v>
+      </c>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2">
+        <v>41495</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="N48" t="s">
+        <v>324</v>
+      </c>
+      <c r="O48" t="s">
+        <v>309</v>
+      </c>
+      <c r="P48" t="s">
+        <v>172</v>
+      </c>
+      <c r="T48" t="s">
+        <v>263</v>
+      </c>
+      <c r="V48" t="s">
+        <v>325</v>
+      </c>
+      <c r="W48" t="s">
+        <v>265</v>
+      </c>
+      <c r="X48" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>383</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" t="s">
+        <v>137</v>
+      </c>
+      <c r="I49" t="s">
+        <v>56</v>
+      </c>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2">
+        <v>41366</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="N49" t="s">
+        <v>327</v>
+      </c>
+      <c r="O49" t="s">
+        <v>307</v>
+      </c>
+      <c r="P49" t="s">
+        <v>172</v>
+      </c>
+      <c r="T49" t="s">
+        <v>213</v>
+      </c>
+      <c r="V49" t="s">
+        <v>328</v>
+      </c>
+      <c r="W49" t="s">
+        <v>215</v>
+      </c>
+      <c r="X49" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>329</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>307</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" t="s">
+        <v>139</v>
+      </c>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2">
+        <v>41559</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="N50" t="s">
+        <v>331</v>
+      </c>
+      <c r="O50" t="s">
+        <v>332</v>
+      </c>
+      <c r="P50" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" t="s">
+        <v>141</v>
+      </c>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2">
+        <v>41380</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="N51" t="s">
+        <v>334</v>
+      </c>
+      <c r="O51" t="s">
+        <v>285</v>
+      </c>
+      <c r="P51" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" t="s">
+        <v>143</v>
+      </c>
+      <c r="G52" t="s">
+        <v>377</v>
+      </c>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2">
+        <v>41767</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="N52" t="s">
+        <v>336</v>
+      </c>
+      <c r="O52" t="s">
+        <v>337</v>
+      </c>
+      <c r="P52" t="s">
+        <v>172</v>
+      </c>
+      <c r="T52" t="s">
+        <v>263</v>
+      </c>
+      <c r="V52" t="s">
+        <v>338</v>
+      </c>
+      <c r="W52" t="s">
+        <v>265</v>
+      </c>
+      <c r="X52" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" t="s">
+        <v>145</v>
+      </c>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2">
+        <v>41944</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="N53" t="s">
+        <v>340</v>
+      </c>
+      <c r="O53" t="s">
+        <v>341</v>
+      </c>
+      <c r="P53" t="s">
+        <v>172</v>
+      </c>
+      <c r="T53" t="s">
+        <v>184</v>
+      </c>
+      <c r="V53" t="s">
+        <v>342</v>
+      </c>
+      <c r="W53" t="s">
+        <v>186</v>
+      </c>
+      <c r="X53" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" t="s">
+        <v>147</v>
+      </c>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2">
+        <v>41306</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="N54" t="s">
+        <v>344</v>
+      </c>
+      <c r="O54" t="s">
+        <v>226</v>
+      </c>
+      <c r="P54" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" t="s">
+        <v>149</v>
+      </c>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2">
+        <v>41707</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="N55" t="s">
+        <v>346</v>
+      </c>
+      <c r="O55" t="s">
+        <v>347</v>
+      </c>
+      <c r="P55" t="s">
+        <v>172</v>
+      </c>
+      <c r="T55" t="s">
+        <v>397</v>
+      </c>
+      <c r="V55" t="s">
+        <v>348</v>
+      </c>
+      <c r="W55" t="s">
+        <v>349</v>
+      </c>
+      <c r="X55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" t="s">
+        <v>139</v>
+      </c>
+      <c r="I56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2">
+        <v>41974</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="N56" t="s">
+        <v>351</v>
+      </c>
+      <c r="O56" t="s">
+        <v>287</v>
+      </c>
+      <c r="P56" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" t="s">
+        <v>152</v>
+      </c>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2">
+        <v>41898</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="N57" t="s">
+        <v>353</v>
+      </c>
+      <c r="O57" t="s">
+        <v>354</v>
+      </c>
+      <c r="P57" t="s">
+        <v>172</v>
+      </c>
+      <c r="T57" t="s">
+        <v>398</v>
+      </c>
+      <c r="V57" t="s">
+        <v>355</v>
+      </c>
+      <c r="W57" t="s">
+        <v>356</v>
+      </c>
+      <c r="X57" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" t="s">
+        <v>154</v>
+      </c>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2">
+        <v>41906</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="N58" t="s">
+        <v>358</v>
+      </c>
+      <c r="O58" t="s">
+        <v>359</v>
+      </c>
+      <c r="P58" t="s">
+        <v>172</v>
+      </c>
+      <c r="T58" t="s">
+        <v>399</v>
+      </c>
+      <c r="V58" t="s">
+        <v>360</v>
+      </c>
+      <c r="W58" t="s">
+        <v>361</v>
+      </c>
+      <c r="X58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" t="s">
+        <v>156</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K59" s="2">
+        <v>41611</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="N59" t="s">
+        <v>363</v>
+      </c>
+      <c r="O59" t="s">
+        <v>364</v>
+      </c>
+      <c r="P59" t="s">
+        <v>172</v>
+      </c>
+      <c r="T59" t="s">
+        <v>400</v>
+      </c>
+      <c r="V59" t="s">
+        <v>365</v>
+      </c>
+      <c r="W59" t="s">
+        <v>366</v>
+      </c>
+      <c r="X59" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" t="s">
+        <v>158</v>
+      </c>
+      <c r="I60" t="s">
+        <v>56</v>
+      </c>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2">
+        <v>41606</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="N60" t="s">
+        <v>368</v>
+      </c>
+      <c r="O60" t="s">
+        <v>369</v>
+      </c>
+      <c r="P60" t="s">
+        <v>172</v>
+      </c>
+      <c r="T60" t="s">
+        <v>401</v>
+      </c>
+      <c r="V60" t="s">
+        <v>370</v>
+      </c>
+      <c r="W60" t="s">
+        <v>371</v>
+      </c>
+      <c r="X60" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" t="s">
+        <v>160</v>
+      </c>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2">
+        <v>41598</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="N61" t="s">
+        <v>373</v>
+      </c>
+      <c r="O61" t="s">
+        <v>374</v>
+      </c>
+      <c r="P61" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62" t="s">
+        <v>162</v>
+      </c>
+      <c r="H62" t="s">
+        <v>75</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K62" s="2">
+        <v>41870</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="N62" t="s">
+        <v>375</v>
+      </c>
+      <c r="O62" t="s">
+        <v>290</v>
+      </c>
+      <c r="P62" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>163</v>
+      </c>
+      <c r="C63" t="s">
+        <v>164</v>
+      </c>
+      <c r="H63" t="s">
+        <v>75</v>
+      </c>
+      <c r="I63" t="s">
+        <v>56</v>
+      </c>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2">
+        <v>41950</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="N63" t="s">
+        <v>376</v>
+      </c>
+      <c r="O63" t="s">
+        <v>369</v>
+      </c>
+      <c r="P63" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447E813A-36E2-4EA3-A03E-8F1D2EFA57D5}">
-  <dimension ref="A2:J27"/>
+  <dimension ref="A2:K173"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -896,260 +3919,2382 @@
     <col min="2" max="2" width="10.1796875" customWidth="1"/>
     <col min="3" max="3" width="14.6328125" customWidth="1"/>
     <col min="4" max="4" width="27.54296875" customWidth="1"/>
-    <col min="5" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" customWidth="1"/>
-    <col min="11" max="11" width="23.36328125" customWidth="1"/>
-    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="5" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" customWidth="1"/>
+    <col min="11" max="11" width="14.453125" customWidth="1"/>
+    <col min="12" max="12" width="23.36328125" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>5</v>
-      </c>
       <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K3" s="2">
+        <v>41763</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>46</v>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B5" t="s">
         <v>47</v>
       </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="J5" t="s">
+        <v>165</v>
+      </c>
+      <c r="K5" s="2">
+        <v>41988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>48</v>
       </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B7" t="s">
         <v>49</v>
       </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7" s="2">
+        <v>41652</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" t="s">
+        <v>165</v>
+      </c>
+      <c r="K9" s="2">
+        <v>41709</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>14</v>
+        <v>176</v>
+      </c>
+      <c r="E11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" t="s">
+        <v>178</v>
+      </c>
+      <c r="G11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="2">
+        <v>41533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" t="s">
+        <v>182</v>
+      </c>
+      <c r="G13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="2">
+        <v>41529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" t="s">
+        <v>185</v>
+      </c>
+      <c r="F16" t="s">
+        <v>186</v>
+      </c>
+      <c r="G16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>378</v>
+      </c>
+      <c r="E17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" s="2">
+        <v>41458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19" t="s">
+        <v>190</v>
+      </c>
+      <c r="F19" t="s">
+        <v>191</v>
+      </c>
+      <c r="G19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>379</v>
+      </c>
+      <c r="E20" t="s">
+        <v>192</v>
+      </c>
+      <c r="F20" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="2">
+        <v>41528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>189</v>
+      </c>
+      <c r="E22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>379</v>
+      </c>
+      <c r="E23" t="s">
+        <v>192</v>
+      </c>
+      <c r="F23" t="s">
+        <v>193</v>
+      </c>
+      <c r="G23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B24" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="G24" t="s">
+        <v>377</v>
+      </c>
+      <c r="K24" s="2">
+        <v>41350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" t="s">
+        <v>195</v>
+      </c>
+      <c r="F25" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26" t="s">
+        <v>197</v>
+      </c>
+      <c r="F26" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="K27" s="2">
+        <v>41381</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>198</v>
+      </c>
+      <c r="E28" t="s">
+        <v>199</v>
+      </c>
+      <c r="F28" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>380</v>
+      </c>
+      <c r="E29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" t="s">
+        <v>202</v>
+      </c>
+      <c r="G29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
+        <v>381</v>
+      </c>
+      <c r="E30" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" t="s">
+        <v>204</v>
+      </c>
+      <c r="G30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" t="s">
+        <v>377</v>
+      </c>
+      <c r="K31" s="2">
+        <v>41648</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
+        <v>205</v>
+      </c>
+      <c r="E32" t="s">
+        <v>206</v>
+      </c>
+      <c r="F32" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C33" t="s">
+        <v>382</v>
+      </c>
+      <c r="E33" t="s">
+        <v>208</v>
+      </c>
+      <c r="F33" t="s">
+        <v>209</v>
+      </c>
+      <c r="G33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" t="s">
+        <v>377</v>
+      </c>
+      <c r="K34" s="2">
+        <v>41610</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>205</v>
+      </c>
+      <c r="E35" t="s">
+        <v>206</v>
+      </c>
+      <c r="F35" t="s">
+        <v>207</v>
+      </c>
+      <c r="G35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>382</v>
+      </c>
+      <c r="E36" t="s">
+        <v>208</v>
+      </c>
+      <c r="F36" t="s">
+        <v>209</v>
+      </c>
+      <c r="G36" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" t="s">
+        <v>377</v>
+      </c>
+      <c r="I37" t="s">
         <v>56</v>
       </c>
-      <c r="D19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C27" t="s">
-        <v>40</v>
+      <c r="K37" s="2">
+        <v>41726</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E38" t="s">
+        <v>211</v>
+      </c>
+      <c r="F38" t="s">
+        <v>212</v>
+      </c>
+      <c r="G38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39" t="s">
+        <v>377</v>
+      </c>
+      <c r="J39" t="s">
+        <v>165</v>
+      </c>
+      <c r="K39" s="2">
+        <v>41786</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E40" t="s">
+        <v>211</v>
+      </c>
+      <c r="F40" t="s">
+        <v>212</v>
+      </c>
+      <c r="G40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" t="s">
+        <v>75</v>
+      </c>
+      <c r="K41" s="2">
+        <v>41887</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C42" t="s">
+        <v>213</v>
+      </c>
+      <c r="E42" t="s">
+        <v>214</v>
+      </c>
+      <c r="F42" t="s">
+        <v>215</v>
+      </c>
+      <c r="G42" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C43" t="s">
+        <v>383</v>
+      </c>
+      <c r="E43" t="s">
+        <v>216</v>
+      </c>
+      <c r="F43" t="s">
+        <v>217</v>
+      </c>
+      <c r="G43" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="K44" s="2">
+        <v>41404</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C45" t="s">
+        <v>213</v>
+      </c>
+      <c r="E45" t="s">
+        <v>214</v>
+      </c>
+      <c r="F45" t="s">
+        <v>215</v>
+      </c>
+      <c r="G45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C46" t="s">
+        <v>383</v>
+      </c>
+      <c r="E46" t="s">
+        <v>216</v>
+      </c>
+      <c r="F46" t="s">
+        <v>217</v>
+      </c>
+      <c r="G46" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" t="s">
+        <v>79</v>
+      </c>
+      <c r="J47" t="s">
+        <v>165</v>
+      </c>
+      <c r="K47" s="2">
+        <v>41320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E48" t="s">
+        <v>218</v>
+      </c>
+      <c r="F48" t="s">
+        <v>200</v>
+      </c>
+      <c r="G48" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C49" t="s">
+        <v>384</v>
+      </c>
+      <c r="E49" t="s">
+        <v>219</v>
+      </c>
+      <c r="F49" t="s">
+        <v>220</v>
+      </c>
+      <c r="G49" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" t="s">
+        <v>81</v>
+      </c>
+      <c r="I50" t="s">
+        <v>56</v>
+      </c>
+      <c r="K50" s="2">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C51" t="s">
+        <v>198</v>
+      </c>
+      <c r="E51" t="s">
+        <v>218</v>
+      </c>
+      <c r="F51" t="s">
+        <v>200</v>
+      </c>
+      <c r="G51" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C52" t="s">
+        <v>173</v>
+      </c>
+      <c r="E52" t="s">
+        <v>221</v>
+      </c>
+      <c r="F52" t="s">
+        <v>175</v>
+      </c>
+      <c r="G52" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" t="s">
+        <v>83</v>
+      </c>
+      <c r="K53" s="2">
+        <v>41398</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C54" t="s">
+        <v>222</v>
+      </c>
+      <c r="E54" t="s">
+        <v>223</v>
+      </c>
+      <c r="F54" t="s">
+        <v>224</v>
+      </c>
+      <c r="G54" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C55" t="s">
+        <v>343</v>
+      </c>
+      <c r="E55" t="s">
+        <v>225</v>
+      </c>
+      <c r="F55" t="s">
+        <v>226</v>
+      </c>
+      <c r="G55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" t="s">
+        <v>85</v>
+      </c>
+      <c r="K56" s="2">
+        <v>41649</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C57" t="s">
+        <v>222</v>
+      </c>
+      <c r="E57" t="s">
+        <v>223</v>
+      </c>
+      <c r="F57" t="s">
+        <v>224</v>
+      </c>
+      <c r="G57" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C58" t="s">
+        <v>343</v>
+      </c>
+      <c r="E58" t="s">
+        <v>225</v>
+      </c>
+      <c r="F58" t="s">
+        <v>226</v>
+      </c>
+      <c r="G58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C59" t="s">
+        <v>385</v>
+      </c>
+      <c r="E59" t="s">
+        <v>227</v>
+      </c>
+      <c r="F59" t="s">
+        <v>228</v>
+      </c>
+      <c r="G59" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" t="s">
+        <v>87</v>
+      </c>
+      <c r="G60" t="s">
+        <v>377</v>
+      </c>
+      <c r="H60" t="s">
+        <v>75</v>
+      </c>
+      <c r="I60" t="s">
+        <v>56</v>
+      </c>
+      <c r="K60" s="2">
+        <v>41569</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C61" t="s">
+        <v>229</v>
+      </c>
+      <c r="E61" t="s">
+        <v>230</v>
+      </c>
+      <c r="F61" t="s">
+        <v>231</v>
+      </c>
+      <c r="G61" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C62" t="s">
+        <v>386</v>
+      </c>
+      <c r="E62" t="s">
+        <v>232</v>
+      </c>
+      <c r="F62" t="s">
+        <v>233</v>
+      </c>
+      <c r="G62" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" t="s">
+        <v>89</v>
+      </c>
+      <c r="J63" t="s">
+        <v>165</v>
+      </c>
+      <c r="K63" s="2">
+        <v>41751</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C64" t="s">
+        <v>234</v>
+      </c>
+      <c r="E64" t="s">
+        <v>235</v>
+      </c>
+      <c r="F64" t="s">
+        <v>236</v>
+      </c>
+      <c r="G64" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C65" t="s">
+        <v>387</v>
+      </c>
+      <c r="E65" t="s">
+        <v>237</v>
+      </c>
+      <c r="F65" t="s">
+        <v>238</v>
+      </c>
+      <c r="G65" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="J66" t="s">
+        <v>165</v>
+      </c>
+      <c r="K66" s="2">
+        <v>41405</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C67" t="s">
+        <v>239</v>
+      </c>
+      <c r="E67" t="s">
+        <v>240</v>
+      </c>
+      <c r="F67" t="s">
+        <v>241</v>
+      </c>
+      <c r="G67" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C68" t="s">
+        <v>189</v>
+      </c>
+      <c r="E68" t="s">
+        <v>242</v>
+      </c>
+      <c r="F68" t="s">
+        <v>191</v>
+      </c>
+      <c r="G68" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" t="s">
+        <v>93</v>
+      </c>
+      <c r="G69" t="s">
+        <v>377</v>
+      </c>
+      <c r="K69" s="2">
+        <v>41811</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C70" t="s">
+        <v>243</v>
+      </c>
+      <c r="E70" t="s">
+        <v>244</v>
+      </c>
+      <c r="F70" t="s">
+        <v>245</v>
+      </c>
+      <c r="G70" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" t="s">
+        <v>95</v>
+      </c>
+      <c r="K71" s="2">
+        <v>41628</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C72" t="s">
+        <v>246</v>
+      </c>
+      <c r="E72" t="s">
+        <v>247</v>
+      </c>
+      <c r="F72" t="s">
+        <v>248</v>
+      </c>
+      <c r="G72" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C73" t="s">
+        <v>388</v>
+      </c>
+      <c r="E73" t="s">
+        <v>249</v>
+      </c>
+      <c r="F73" t="s">
+        <v>250</v>
+      </c>
+      <c r="G73" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>96</v>
+      </c>
+      <c r="B74" t="s">
+        <v>97</v>
+      </c>
+      <c r="I74" t="s">
+        <v>56</v>
+      </c>
+      <c r="K74" s="2">
+        <v>41376</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C75" t="s">
+        <v>251</v>
+      </c>
+      <c r="E75" t="s">
+        <v>252</v>
+      </c>
+      <c r="F75" t="s">
+        <v>253</v>
+      </c>
+      <c r="G75" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C76" t="s">
+        <v>389</v>
+      </c>
+      <c r="E76" t="s">
+        <v>254</v>
+      </c>
+      <c r="F76" t="s">
+        <v>255</v>
+      </c>
+      <c r="G76" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" t="s">
+        <v>99</v>
+      </c>
+      <c r="K77" s="2">
+        <v>41785</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C78" t="s">
+        <v>256</v>
+      </c>
+      <c r="E78" t="s">
+        <v>257</v>
+      </c>
+      <c r="F78" t="s">
+        <v>258</v>
+      </c>
+      <c r="G78" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C79" t="s">
+        <v>274</v>
+      </c>
+      <c r="E79" t="s">
+        <v>259</v>
+      </c>
+      <c r="F79" t="s">
+        <v>260</v>
+      </c>
+      <c r="G79" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C80" t="s">
+        <v>390</v>
+      </c>
+      <c r="E80" t="s">
+        <v>261</v>
+      </c>
+      <c r="F80" t="s">
+        <v>262</v>
+      </c>
+      <c r="G80" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" t="s">
+        <v>101</v>
+      </c>
+      <c r="K81" s="2">
+        <v>41456</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C82" t="s">
+        <v>263</v>
+      </c>
+      <c r="E82" t="s">
+        <v>264</v>
+      </c>
+      <c r="F82" t="s">
+        <v>265</v>
+      </c>
+      <c r="G82" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" t="s">
+        <v>103</v>
+      </c>
+      <c r="G83" t="s">
+        <v>377</v>
+      </c>
+      <c r="K83" s="2">
+        <v>41914</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C84" t="s">
+        <v>234</v>
+      </c>
+      <c r="E84" t="s">
+        <v>266</v>
+      </c>
+      <c r="F84" t="s">
+        <v>236</v>
+      </c>
+      <c r="G84" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C85" t="s">
+        <v>391</v>
+      </c>
+      <c r="E85" t="s">
+        <v>267</v>
+      </c>
+      <c r="F85" t="s">
+        <v>268</v>
+      </c>
+      <c r="G85" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>104</v>
+      </c>
+      <c r="B86" t="s">
+        <v>105</v>
+      </c>
+      <c r="K86" s="2">
+        <v>41339</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C87" t="s">
+        <v>269</v>
+      </c>
+      <c r="E87" t="s">
+        <v>270</v>
+      </c>
+      <c r="F87" t="s">
+        <v>271</v>
+      </c>
+      <c r="G87" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C88" t="s">
+        <v>392</v>
+      </c>
+      <c r="E88" t="s">
+        <v>272</v>
+      </c>
+      <c r="F88" t="s">
+        <v>273</v>
+      </c>
+      <c r="G88" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>106</v>
+      </c>
+      <c r="B89" t="s">
+        <v>107</v>
+      </c>
+      <c r="K89" s="2">
+        <v>41657</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C90" t="s">
+        <v>269</v>
+      </c>
+      <c r="E90" t="s">
+        <v>270</v>
+      </c>
+      <c r="F90" t="s">
+        <v>271</v>
+      </c>
+      <c r="G90" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C91" t="s">
+        <v>392</v>
+      </c>
+      <c r="E91" t="s">
+        <v>272</v>
+      </c>
+      <c r="F91" t="s">
+        <v>273</v>
+      </c>
+      <c r="G91" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>108</v>
+      </c>
+      <c r="B92" t="s">
+        <v>109</v>
+      </c>
+      <c r="K92" s="2">
+        <v>41307</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C93" t="s">
+        <v>274</v>
+      </c>
+      <c r="E93" t="s">
+        <v>275</v>
+      </c>
+      <c r="F93" t="s">
+        <v>260</v>
+      </c>
+      <c r="G93" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C94" t="s">
+        <v>393</v>
+      </c>
+      <c r="E94" t="s">
+        <v>276</v>
+      </c>
+      <c r="F94" t="s">
+        <v>277</v>
+      </c>
+      <c r="G94" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>110</v>
+      </c>
+      <c r="B95" t="s">
+        <v>111</v>
+      </c>
+      <c r="K95" s="2">
+        <v>41542</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C96" t="s">
+        <v>278</v>
+      </c>
+      <c r="E96" t="s">
+        <v>279</v>
+      </c>
+      <c r="F96" t="s">
+        <v>280</v>
+      </c>
+      <c r="G96" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97" t="s">
+        <v>113</v>
+      </c>
+      <c r="K97" s="2">
+        <v>41427</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C98" t="s">
+        <v>281</v>
+      </c>
+      <c r="E98" t="s">
+        <v>282</v>
+      </c>
+      <c r="F98" t="s">
+        <v>283</v>
+      </c>
+      <c r="G98" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C99" t="s">
+        <v>333</v>
+      </c>
+      <c r="E99" t="s">
+        <v>284</v>
+      </c>
+      <c r="F99" t="s">
+        <v>285</v>
+      </c>
+      <c r="G99" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C100" t="s">
+        <v>350</v>
+      </c>
+      <c r="E100" t="s">
+        <v>286</v>
+      </c>
+      <c r="F100" t="s">
+        <v>287</v>
+      </c>
+      <c r="G100" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>114</v>
+      </c>
+      <c r="B101" t="s">
+        <v>115</v>
+      </c>
+      <c r="K101" s="2">
+        <v>41604</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C102" t="s">
+        <v>288</v>
+      </c>
+      <c r="E102" t="s">
+        <v>289</v>
+      </c>
+      <c r="F102" t="s">
+        <v>290</v>
+      </c>
+      <c r="G102" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C103" t="s">
+        <v>394</v>
+      </c>
+      <c r="E103" t="s">
+        <v>291</v>
+      </c>
+      <c r="F103" t="s">
+        <v>292</v>
+      </c>
+      <c r="G103" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>116</v>
+      </c>
+      <c r="B104" t="s">
+        <v>117</v>
+      </c>
+      <c r="J104" t="s">
+        <v>165</v>
+      </c>
+      <c r="K104" s="2">
+        <v>41427</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C105" t="s">
+        <v>288</v>
+      </c>
+      <c r="E105" t="s">
+        <v>289</v>
+      </c>
+      <c r="F105" t="s">
+        <v>290</v>
+      </c>
+      <c r="G105" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C106" t="s">
+        <v>394</v>
+      </c>
+      <c r="E106" t="s">
+        <v>291</v>
+      </c>
+      <c r="F106" t="s">
+        <v>292</v>
+      </c>
+      <c r="G106" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>118</v>
+      </c>
+      <c r="B107" t="s">
+        <v>119</v>
+      </c>
+      <c r="J107" t="s">
+        <v>165</v>
+      </c>
+      <c r="K107" s="2">
+        <v>41812</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C108" t="s">
+        <v>293</v>
+      </c>
+      <c r="E108" t="s">
+        <v>294</v>
+      </c>
+      <c r="F108" t="s">
+        <v>295</v>
+      </c>
+      <c r="G108" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C109" t="s">
+        <v>263</v>
+      </c>
+      <c r="E109" t="s">
+        <v>296</v>
+      </c>
+      <c r="F109" t="s">
+        <v>265</v>
+      </c>
+      <c r="G109" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>120</v>
+      </c>
+      <c r="B110" t="s">
+        <v>117</v>
+      </c>
+      <c r="I110" t="s">
+        <v>56</v>
+      </c>
+      <c r="J110" t="s">
+        <v>165</v>
+      </c>
+      <c r="K110" s="2">
+        <v>41801</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C111" t="s">
+        <v>297</v>
+      </c>
+      <c r="E111" t="s">
+        <v>298</v>
+      </c>
+      <c r="F111" t="s">
+        <v>299</v>
+      </c>
+      <c r="G111" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C112" t="s">
+        <v>395</v>
+      </c>
+      <c r="E112" t="s">
+        <v>300</v>
+      </c>
+      <c r="F112" t="s">
+        <v>301</v>
+      </c>
+      <c r="G112" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>121</v>
+      </c>
+      <c r="B113" t="s">
+        <v>122</v>
+      </c>
+      <c r="G113" t="s">
+        <v>377</v>
+      </c>
+      <c r="K113" s="2">
+        <v>41446</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C114" t="s">
+        <v>302</v>
+      </c>
+      <c r="E114" t="s">
+        <v>303</v>
+      </c>
+      <c r="F114" t="s">
+        <v>304</v>
+      </c>
+      <c r="G114" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>123</v>
+      </c>
+      <c r="B115" t="s">
+        <v>124</v>
+      </c>
+      <c r="G115" t="s">
+        <v>377</v>
+      </c>
+      <c r="K115" s="2">
+        <v>41696</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C116" t="s">
+        <v>302</v>
+      </c>
+      <c r="E116" t="s">
+        <v>303</v>
+      </c>
+      <c r="F116" t="s">
+        <v>304</v>
+      </c>
+      <c r="G116" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>125</v>
+      </c>
+      <c r="B117" t="s">
+        <v>126</v>
+      </c>
+      <c r="K117" s="2">
+        <v>41482</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C118" t="s">
+        <v>305</v>
+      </c>
+      <c r="E118" t="s">
+        <v>306</v>
+      </c>
+      <c r="F118" t="s">
+        <v>307</v>
+      </c>
+      <c r="G118" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C119" t="s">
+        <v>323</v>
+      </c>
+      <c r="E119" t="s">
+        <v>308</v>
+      </c>
+      <c r="F119" t="s">
+        <v>309</v>
+      </c>
+      <c r="G119" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>127</v>
+      </c>
+      <c r="B120" t="s">
+        <v>128</v>
+      </c>
+      <c r="K120" s="2">
+        <v>41918</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C121" t="s">
+        <v>310</v>
+      </c>
+      <c r="E121" t="s">
+        <v>311</v>
+      </c>
+      <c r="F121" t="s">
+        <v>312</v>
+      </c>
+      <c r="G121" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C122" t="s">
+        <v>392</v>
+      </c>
+      <c r="E122" t="s">
+        <v>313</v>
+      </c>
+      <c r="F122" t="s">
+        <v>273</v>
+      </c>
+      <c r="G122" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C123" t="s">
+        <v>396</v>
+      </c>
+      <c r="E123" t="s">
+        <v>314</v>
+      </c>
+      <c r="F123" t="s">
+        <v>315</v>
+      </c>
+      <c r="G123" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>129</v>
+      </c>
+      <c r="B124" t="s">
+        <v>130</v>
+      </c>
+      <c r="K124" s="2">
+        <v>41752</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C125" t="s">
+        <v>316</v>
+      </c>
+      <c r="E125" t="s">
+        <v>317</v>
+      </c>
+      <c r="F125" t="s">
+        <v>318</v>
+      </c>
+      <c r="G125" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>131</v>
+      </c>
+      <c r="B126" t="s">
+        <v>91</v>
+      </c>
+      <c r="K126" s="2">
+        <v>41855</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C127" t="s">
+        <v>316</v>
+      </c>
+      <c r="E127" t="s">
+        <v>317</v>
+      </c>
+      <c r="F127" t="s">
+        <v>318</v>
+      </c>
+      <c r="G127" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>132</v>
+      </c>
+      <c r="B128" t="s">
+        <v>133</v>
+      </c>
+      <c r="I128" t="s">
+        <v>56</v>
+      </c>
+      <c r="K128" s="2">
+        <v>41622</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C129" t="s">
+        <v>319</v>
+      </c>
+      <c r="E129" t="s">
+        <v>320</v>
+      </c>
+      <c r="F129" t="s">
+        <v>321</v>
+      </c>
+      <c r="G129" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C130" t="s">
+        <v>319</v>
+      </c>
+      <c r="E130" t="s">
+        <v>322</v>
+      </c>
+      <c r="F130" t="s">
+        <v>321</v>
+      </c>
+      <c r="G130" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" t="s">
+        <v>135</v>
+      </c>
+      <c r="G131" t="s">
+        <v>377</v>
+      </c>
+      <c r="I131" t="s">
+        <v>56</v>
+      </c>
+      <c r="K131" s="2">
+        <v>41495</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C132" t="s">
+        <v>323</v>
+      </c>
+      <c r="E132" t="s">
+        <v>324</v>
+      </c>
+      <c r="F132" t="s">
+        <v>309</v>
+      </c>
+      <c r="G132" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C133" t="s">
+        <v>263</v>
+      </c>
+      <c r="E133" t="s">
+        <v>325</v>
+      </c>
+      <c r="F133" t="s">
+        <v>265</v>
+      </c>
+      <c r="G133" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C134" t="s">
+        <v>383</v>
+      </c>
+      <c r="E134" t="s">
+        <v>326</v>
+      </c>
+      <c r="F134" t="s">
+        <v>217</v>
+      </c>
+      <c r="G134" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" t="s">
+        <v>137</v>
+      </c>
+      <c r="I135" t="s">
+        <v>56</v>
+      </c>
+      <c r="K135" s="2">
+        <v>41366</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C136" t="s">
+        <v>305</v>
+      </c>
+      <c r="E136" t="s">
+        <v>327</v>
+      </c>
+      <c r="F136" t="s">
+        <v>307</v>
+      </c>
+      <c r="G136" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C137" t="s">
+        <v>213</v>
+      </c>
+      <c r="E137" t="s">
+        <v>328</v>
+      </c>
+      <c r="F137" t="s">
+        <v>215</v>
+      </c>
+      <c r="G137" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C138" t="s">
+        <v>305</v>
+      </c>
+      <c r="E138" t="s">
+        <v>329</v>
+      </c>
+      <c r="F138" t="s">
+        <v>307</v>
+      </c>
+      <c r="G138" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>139</v>
+      </c>
+      <c r="K139" s="2">
+        <v>41559</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C140" t="s">
+        <v>330</v>
+      </c>
+      <c r="E140" t="s">
+        <v>331</v>
+      </c>
+      <c r="F140" t="s">
+        <v>332</v>
+      </c>
+      <c r="G140" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>141</v>
+      </c>
+      <c r="K141" s="2">
+        <v>41380</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C142" t="s">
+        <v>333</v>
+      </c>
+      <c r="E142" t="s">
+        <v>334</v>
+      </c>
+      <c r="F142" t="s">
+        <v>285</v>
+      </c>
+      <c r="G142" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>143</v>
+      </c>
+      <c r="G143" t="s">
+        <v>377</v>
+      </c>
+      <c r="K143" s="2">
+        <v>41767</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C144" t="s">
+        <v>335</v>
+      </c>
+      <c r="E144" t="s">
+        <v>336</v>
+      </c>
+      <c r="F144" t="s">
+        <v>337</v>
+      </c>
+      <c r="G144" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C145" t="s">
+        <v>263</v>
+      </c>
+      <c r="E145" t="s">
+        <v>338</v>
+      </c>
+      <c r="F145" t="s">
+        <v>265</v>
+      </c>
+      <c r="G145" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>145</v>
+      </c>
+      <c r="K146" s="2">
+        <v>41944</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C147" t="s">
+        <v>339</v>
+      </c>
+      <c r="E147" t="s">
+        <v>340</v>
+      </c>
+      <c r="F147" t="s">
+        <v>341</v>
+      </c>
+      <c r="G147" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C148" t="s">
+        <v>184</v>
+      </c>
+      <c r="E148" t="s">
+        <v>342</v>
+      </c>
+      <c r="F148" t="s">
+        <v>186</v>
+      </c>
+      <c r="G148" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>146</v>
+      </c>
+      <c r="B149" t="s">
+        <v>147</v>
+      </c>
+      <c r="K149" s="2">
+        <v>41306</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C150" t="s">
+        <v>343</v>
+      </c>
+      <c r="E150" t="s">
+        <v>344</v>
+      </c>
+      <c r="F150" t="s">
+        <v>226</v>
+      </c>
+      <c r="G150" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>148</v>
+      </c>
+      <c r="B151" t="s">
+        <v>149</v>
+      </c>
+      <c r="K151" s="2">
+        <v>41707</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C152" t="s">
+        <v>345</v>
+      </c>
+      <c r="E152" t="s">
+        <v>346</v>
+      </c>
+      <c r="F152" t="s">
+        <v>347</v>
+      </c>
+      <c r="G152" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C153" t="s">
+        <v>397</v>
+      </c>
+      <c r="E153" t="s">
+        <v>348</v>
+      </c>
+      <c r="F153" t="s">
+        <v>349</v>
+      </c>
+      <c r="G153" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>150</v>
+      </c>
+      <c r="B154" t="s">
+        <v>139</v>
+      </c>
+      <c r="I154" t="s">
+        <v>56</v>
+      </c>
+      <c r="K154" s="2">
+        <v>41974</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C155" t="s">
+        <v>350</v>
+      </c>
+      <c r="E155" t="s">
+        <v>351</v>
+      </c>
+      <c r="F155" t="s">
+        <v>287</v>
+      </c>
+      <c r="G155" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>151</v>
+      </c>
+      <c r="B156" t="s">
+        <v>152</v>
+      </c>
+      <c r="K156" s="2">
+        <v>41898</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C157" t="s">
+        <v>352</v>
+      </c>
+      <c r="E157" t="s">
+        <v>353</v>
+      </c>
+      <c r="F157" t="s">
+        <v>354</v>
+      </c>
+      <c r="G157" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C158" t="s">
+        <v>398</v>
+      </c>
+      <c r="E158" t="s">
+        <v>355</v>
+      </c>
+      <c r="F158" t="s">
+        <v>356</v>
+      </c>
+      <c r="G158" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>153</v>
+      </c>
+      <c r="B159" t="s">
+        <v>154</v>
+      </c>
+      <c r="K159" s="2">
+        <v>41906</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C160" t="s">
+        <v>357</v>
+      </c>
+      <c r="E160" t="s">
+        <v>358</v>
+      </c>
+      <c r="F160" t="s">
+        <v>359</v>
+      </c>
+      <c r="G160" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C161" t="s">
+        <v>399</v>
+      </c>
+      <c r="E161" t="s">
+        <v>360</v>
+      </c>
+      <c r="F161" t="s">
+        <v>361</v>
+      </c>
+      <c r="G161" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>155</v>
+      </c>
+      <c r="B162" t="s">
+        <v>156</v>
+      </c>
+      <c r="J162" t="s">
+        <v>165</v>
+      </c>
+      <c r="K162" s="2">
+        <v>41611</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C163" t="s">
+        <v>362</v>
+      </c>
+      <c r="E163" t="s">
+        <v>363</v>
+      </c>
+      <c r="F163" t="s">
+        <v>364</v>
+      </c>
+      <c r="G163" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C164" t="s">
+        <v>400</v>
+      </c>
+      <c r="E164" t="s">
+        <v>365</v>
+      </c>
+      <c r="F164" t="s">
+        <v>366</v>
+      </c>
+      <c r="G164" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>157</v>
+      </c>
+      <c r="B165" t="s">
+        <v>158</v>
+      </c>
+      <c r="I165" t="s">
+        <v>56</v>
+      </c>
+      <c r="K165" s="2">
+        <v>41606</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C166" t="s">
+        <v>367</v>
+      </c>
+      <c r="E166" t="s">
+        <v>368</v>
+      </c>
+      <c r="F166" t="s">
+        <v>369</v>
+      </c>
+      <c r="G166" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C167" t="s">
+        <v>401</v>
+      </c>
+      <c r="E167" t="s">
+        <v>370</v>
+      </c>
+      <c r="F167" t="s">
+        <v>371</v>
+      </c>
+      <c r="G167" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>159</v>
+      </c>
+      <c r="B168" t="s">
+        <v>160</v>
+      </c>
+      <c r="K168" s="2">
+        <v>41598</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C169" t="s">
+        <v>372</v>
+      </c>
+      <c r="E169" t="s">
+        <v>373</v>
+      </c>
+      <c r="F169" t="s">
+        <v>374</v>
+      </c>
+      <c r="G169" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>161</v>
+      </c>
+      <c r="B170" t="s">
+        <v>162</v>
+      </c>
+      <c r="H170" t="s">
+        <v>75</v>
+      </c>
+      <c r="J170" t="s">
+        <v>165</v>
+      </c>
+      <c r="K170" s="2">
+        <v>41870</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C171" t="s">
+        <v>288</v>
+      </c>
+      <c r="E171" t="s">
+        <v>375</v>
+      </c>
+      <c r="F171" t="s">
+        <v>290</v>
+      </c>
+      <c r="G171" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>163</v>
+      </c>
+      <c r="B172" t="s">
+        <v>164</v>
+      </c>
+      <c r="H172" t="s">
+        <v>75</v>
+      </c>
+      <c r="I172" t="s">
+        <v>56</v>
+      </c>
+      <c r="K172" s="2">
+        <v>41950</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C173" t="s">
+        <v>367</v>
+      </c>
+      <c r="E173" t="s">
+        <v>376</v>
+      </c>
+      <c r="F173" t="s">
+        <v>369</v>
+      </c>
+      <c r="G173" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1162,8 +6307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03682ADA-FF74-421D-AE11-5CF83653AE70}">
   <dimension ref="A2:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1183,39 +6328,39 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -1223,15 +6368,15 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -1239,15 +6384,15 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -1255,15 +6400,15 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -1271,10 +6416,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -1282,10 +6427,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -1293,10 +6438,10 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -1304,10 +6449,10 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -1315,15 +6460,15 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -1331,10 +6476,10 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -1342,10 +6487,10 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -1353,15 +6498,15 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -1369,10 +6514,10 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -1380,10 +6525,10 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1391,15 +6536,15 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -1407,10 +6552,10 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
